--- a/exp/comparison-PLOJF-14_15/expResult/2025-9-12/PLOJF-14_15/PLOJF.xlsx
+++ b/exp/comparison-PLOJF-14_15/expResult/2025-9-12/PLOJF-14_15/PLOJF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PLOJF-25-9-15\exp\comparison-PLOJF-14_15\expResult\2025-9-12\PLOJF-14_15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A82B35F-A851-4EA9-8FC4-095F3B4D2D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD0E4B-957F-4F4E-A272-6C95DCC20737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="420" windowWidth="29040" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="29040" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmpResult" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="311">
   <si>
     <t>Func</t>
   </si>
@@ -1000,15 +1000,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1040,10 +1040,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1359,28 +1359,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:BW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BV4" sqref="BV4:BW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="3" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,553 +1409,2650 @@
       <c r="L1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>2554.8253260759202</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>6693639162.8310394</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>128237.78775952749</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>110.36187456265465</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>4042.7302082582773</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>162.51246153731168</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>100.00000000000533</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>114.67555120142181</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>100.00000004282847</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>2448748.1368249278</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75">
       <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1738.2326966066785</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>2861885079.8235259</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>200404.39572483036</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>31.532435411764197</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>5766.0421354696318</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>130.27366730637536</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>3.7775664783390713E-11</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>88.359850610091726</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>2.189328622125758E-7</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>2480909.6260641557</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3665.2085306119252</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>41797.165159411001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>6240.7554229094121</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>300.00038172171037</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>300.23763754078385</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>8488.8261886919227</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>10571.756761388793</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>333.55333360075457</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>300.00000000000097</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>41177.975287643458</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2554.8253260759202</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1738.2326966066785</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3665.2085306119252</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1126.7127716522855</v>
+      </c>
+      <c r="T4" s="2">
+        <v>490.11497148172037</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15.529958451835777</v>
+      </c>
+      <c r="V4" s="2">
+        <v>536.43885153390033</v>
+      </c>
+      <c r="W4" s="2">
+        <v>8.4346017807990457</v>
+      </c>
+      <c r="X4" s="2">
+        <v>603.7197693196191</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1.1964897017342613</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>757.69936729391009</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>8.3901522173838909</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>850.89162081122561</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>10.907759923930174</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>912.95860445354072</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>9.592888377067208</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>3353.9886293742711</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>278.13463959721798</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1147.2996394410006</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>19.766921661700692</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>24156.323916424895</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>17598.039028664167</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>4927.2697974442044</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>1447.4214973308028</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>1716.0117667171087</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>60.114377262976078</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2007.682852974548</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>158.45086503863112</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>2051.253322800153</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>150.43522354068807</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1784.0734325561539</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>29.443829120239347</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>13097.348627388543</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>8787.2671561051538</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>2046.8581400218611</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>33.101813021200336</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>2146.2841585631882</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>43.215720446046014</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>2340.3387072029091</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>10.304455166946836</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>2372.7351029488209</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>403.28961712349854</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>2687.3933047244359</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>10.200315571176871</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>2853.2814763064648</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>9.512485527442875</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>2887.2616129620874</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>0.53032617698894813</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>3949.353848755899</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>129.22834033784596</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>3207.3270895849905</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>5.059419447435312</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>3196.2385809923499</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>29.722031145381514</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>3502.2769747610437</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>52.755315458708971</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>15330.285757511194</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>3944.6743396640245</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:75">
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1126.7127716522855</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>10070.275564155772</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>2328.9935172711107</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>2.085280643711386E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>8.9816681954198854E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>1934.352813211073</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>26054.362156002913</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>34.868584899309667</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>1.2970600353980771E-12</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>18382.078282584789</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6693639162.8310394</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2861885079.8235259</v>
+      </c>
+      <c r="R5" s="2">
+        <v>41797.165159411001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>10070.275564155772</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1140.7936016428732</v>
+      </c>
+      <c r="U5" s="2">
+        <v>655.74112209115356</v>
+      </c>
+      <c r="V5" s="2">
+        <v>744.85561163107843</v>
+      </c>
+      <c r="W5" s="2">
+        <v>31.952938981072219</v>
+      </c>
+      <c r="X5" s="2">
+        <v>666.15230012131212</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>11.37825250542368</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1063.5794706044705</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>52.716385688809687</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>971.60705863386204</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>31.818319739020389</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>5947.422075517391</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1583.1939211767813</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>7095.2332117071901</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>730.1685403675524</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>2173.4969616158237</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>956.31717859140076</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>331509626.81111556</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>400314292.72533059</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>235834092.09654504</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>849780125.99275422</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>326596.73590688646</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>462846.00969484152</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2128780.7268424314</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>8541042.3845163677</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>3087.5997462252603</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>338.45727416859694</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>2275.7504308829034</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>204.73693514368381</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>1261833.3103635118</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>1620015.2096371481</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>951492.84809935035</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>579529.70616700302</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>2665.9723409727258</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>201.10300558896384</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>2532.4887268171415</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>33.681820384553056</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>7925.7712296930185</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>1936.1360771375989</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>2957.5091815997666</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>44.989413367205245</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>3172.360548867905</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>44.714994775766385</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>3136.364526209451</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>113.24474551795321</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>6421.7506817557278</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>753.05353968485178</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>3412.1377757939781</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>82.45457716221101</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>3695.8511656053111</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>331.38439383177325</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>4289.7847082890685</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>273.59722342426971</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>9796484.0713628717</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>5778484.2886775928</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>490.11497148172037</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>1140.7936016428732</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>487.14493603033458</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>459.33912083502486</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>486.95707400781794</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>465.93979366660039</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>436.89272931929167</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>482.9274826374587</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>427.9284169173946</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>491.6295701437769</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2">
+        <v>128237.78775952749</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>200404.39572483036</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6240.7554229094121</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2328.9935172711107</v>
+      </c>
+      <c r="T6" s="2">
+        <v>487.14493603033458</v>
+      </c>
+      <c r="U6" s="2">
+        <v>11.794415498771412</v>
+      </c>
+      <c r="V6" s="2">
+        <v>549.55966186771207</v>
+      </c>
+      <c r="W6" s="2">
+        <v>9.1650953717742478</v>
+      </c>
+      <c r="X6" s="2">
+        <v>603.13641631601035</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1.5852285638198302</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>780.11801204848302</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>9.5040082897436235</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>862.82053556683763</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>11.246562400095582</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>907.571230056275</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>10.796056260845191</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>3758.7137803512355</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>395.07701891479815</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1172.7527652139026</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>24.751052120238835</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>822362.21260583983</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>824453.13076677441</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>22206.370349636225</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>14658.462383004626</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>7660.3695494148433</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>5418.4674350741952</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>11598.628563902685</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>8017.8700271759717</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2152.0515986995019</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>135.74961622848346</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>1851.4320161585783</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>44.327295622471787</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>206079.2093763451</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>120301.04491196336</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>8883.7206697395213</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>8765.3118615443927</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>2200.3379147656501</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>67.727339076744457</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>2352.3169556831735</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>14.624072331941139</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>2755.4659941717491</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>1059.6532211320286</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>2706.4007882461578</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>12.36269699495735</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>2885.3621726971105</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>12.114985980361398</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>2886.8940152574555</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>0.89644858041550923</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>4062.3825711711975</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>375.6517220341521</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>3208.5704293686285</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>4.8375122746334966</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>3222.2876802577566</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>12.933381225409267</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>3584.8295953800853</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>76.549242552646305</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>60372.110320082989</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>50052.185590563524</v>
+      </c>
+      <c r="BV6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:75">
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>15.529958451835777</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>655.74112209115356</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>11.794415498771412</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>35.771609026345054</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>9.4448380005166186</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>22.679361580189415</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>28.560360669896465</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>30.169446626510496</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>31.962548129928571</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>5.5848144419029575</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="2">
+        <v>110.36187456265465</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>31.532435411764197</v>
+      </c>
+      <c r="R7" s="2">
+        <v>300.00038172171037</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2.085280643711386E-3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>459.33912083502486</v>
+      </c>
+      <c r="U7" s="2">
+        <v>35.771609026345054</v>
+      </c>
+      <c r="V7" s="2">
+        <v>635.93554158046413</v>
+      </c>
+      <c r="W7" s="2">
+        <v>31.960771397637235</v>
+      </c>
+      <c r="X7" s="2">
+        <v>638.9184383839696</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>13.801034906761346</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>887.43500747792245</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>49.506203430856772</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>909.87401816376507</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>21.39628705232716</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1838.4752017668548</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>784.056535412995</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>4153.7569605541248</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>655.81912386692397</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1196.7338110678306</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>34.907159059728663</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>26416.332994339788</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>13810.051397888443</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>14899.529971854763</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>17529.305363288466</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>2749.8915523259097</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>2210.4813473108329</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2472.1353293952229</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>2163.1387559778022</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>2627.1375771506855</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>313.88114600732285</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>2188.5404909533663</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>227.82478892662931</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>16295.13884910474</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>13984.032378972595</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>2317.7065855520291</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>1004.1267444113474</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>2391.1383869290721</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>146.00890483617198</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>2419.6832001396438</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>32.720922880117548</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>2382.9278330940938</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>652.10610424492188</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>2774.4359367049624</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>32.398199686372905</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>2979.7786632206235</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>44.012061621649778</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>2894.3588920957268</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>14.845061026211514</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>4021.2085650209656</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>1533.7795294260782</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>3247.4629368023452</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>19.851086295589425</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>3164.6965924457795</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>54.346110348421604</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>3762.1708060742985</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>223.81138628758444</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>10661.72540001251</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>3671.4578634929826</v>
+      </c>
+      <c r="BV7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>536.43885153390033</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>744.85561163107843</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>549.55966186771207</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>635.93554158046413</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>535.96143885633228</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>546.35713016987131</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>532.98940627789125</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>553.87446278773132</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>578.22920524211577</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>723.02218305046461</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4042.7302082582773</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5766.0421354696318</v>
+      </c>
+      <c r="R8" s="2">
+        <v>300.23763754078385</v>
+      </c>
+      <c r="S8" s="2">
+        <v>8.9816681954198854E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>486.95707400781794</v>
+      </c>
+      <c r="U8" s="2">
+        <v>9.4448380005166186</v>
+      </c>
+      <c r="V8" s="2">
+        <v>535.96143885633228</v>
+      </c>
+      <c r="W8" s="2">
+        <v>8.4904099536193964</v>
+      </c>
+      <c r="X8" s="3">
+        <v>600.25167475504702</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.30015202253010986</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>774.26116959433068</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>11.905940090193836</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>852.59375000382863</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>8.7154647261606453</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>905.05826324734903</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>38.527606639191326</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>3128.6852958258291</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>496.211487959458</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1124.790305654742</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>20.902819046879117</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>210619.26687936991</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>182700.49338205255</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>10856.401272513142</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>15785.449845863819</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>7349.2279438129035</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>4820.4891531259173</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>10438.770542361197</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>10615.653923129412</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>1997.5145468696401</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>179.05790845349432</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1881.6982348599145</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>126.46406638002239</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>149459.11545989831</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>123023.69772986475</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>9045.9036566059749</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>9419.2484295491813</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>2237.7289130020122</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>114.09983415064032</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>2342.3044811641621</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>9.5912366485401641</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>3172.8193575892096</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>1141.2625148178868</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>2685.0481359792948</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>7.9050128918525688</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>2856.6253961669659</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>8.2236226606344953</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>2886.6085204796614</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>1.0003697675160197</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>3887.0228733244362</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>313.21678169549017</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>3199.6274891252428</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>8.3373727349589863</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>3192.6467629886542</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>34.833138780717981</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>3410.4371530034618</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>58.457164558354798</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>8018.1723910026349</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>2454.8225501294864</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75">
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>8.4346017807990457</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>31.952938981072219</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>9.1650953717742478</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>31.960771397637235</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>8.4904099536193964</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>7.5756750107394515</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>10.317471749770663</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>13.558885353127527</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>26.818521178773992</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>20.559815776660152</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="2">
+        <v>162.51246153731168</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>130.27366730637536</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8488.8261886919227</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1934.352813211073</v>
+      </c>
+      <c r="T9" s="2">
+        <v>465.93979366660039</v>
+      </c>
+      <c r="U9" s="2">
+        <v>22.679361580189415</v>
+      </c>
+      <c r="V9" s="2">
+        <v>546.35713016987131</v>
+      </c>
+      <c r="W9" s="3">
+        <v>7.5756750107394515</v>
+      </c>
+      <c r="X9" s="2">
+        <v>606.91947024673095</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1.7075094971164719</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>782.92486287617635</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>6.7396422981692519</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>845.41739447150258</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>7.5277679820160133</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>912.72240809806226</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>14.763925744645185</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>3324.1844756287751</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>326.91725795083181</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1150.7201487084519</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>21.352837310621567</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>506694.1019153443</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>323262.37921562413</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1665.0251932643525</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>325.98043429563768</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>31001.901302796807</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>32374.767679927056</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>1662.6220549460902</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>120.42157012344818</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>2116.962293559749</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>141.82233980310573</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1828.6646297805717</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>59.256654189320763</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>158241.96373456306</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>92782.44941608583</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>2029.5708818012884</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>161.50289510339286</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>2190.901925351734</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>77.769471667642634</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>2341.039705153863</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>40.732676458978077</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>2561.988486018065</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>716.10292742426464</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>2701.4977707638641</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>9.243275128028035</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>2874.6708410869974</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>84.900593220663794</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>2886.4825586774468</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>0.94399218800954821</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>3374.8361024528426</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>474.77623393318277</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>3211.5988488520679</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>4.4088095898403088</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>3212.8512510761307</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>4.1882401275804133</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>3463.9747950370152</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>68.182486343413061</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>8859.8874288370043</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>1727.2047001825968</v>
+      </c>
+      <c r="BV9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:75">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>603.7197693196191</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>666.15230012131212</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>603.13641631601035</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>638.9184383839696</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>600.25167475504702</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>606.91947024673095</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <v>606.84012160167902</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>606.47435625542255</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>605.91420075082374</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>607.20560571220778</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100.00000000000533</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.7775664783390713E-11</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10571.756761388793</v>
+      </c>
+      <c r="S10" s="2">
+        <v>26054.362156002913</v>
+      </c>
+      <c r="T10" s="2">
+        <v>436.89272931929167</v>
+      </c>
+      <c r="U10" s="2">
+        <v>28.560360669896465</v>
+      </c>
+      <c r="V10" s="3">
+        <v>532.98940627789125</v>
+      </c>
+      <c r="W10" s="2">
+        <v>10.317471749770663</v>
+      </c>
+      <c r="X10" s="2">
+        <v>606.84012160167902</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>3.90034902219181</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>785.38036780188281</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>20.603147645470358</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>838.65547254298303</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>9.9300466087442363</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1006.9886502924313</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>98.592753463627389</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>3075.8201231074272</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>383.00766142700451</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1237.0935600418284</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>54.01535891760232</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>9422.239179538039</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>9980.6510060392447</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>1805.1314699012221</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>767.34927116666211</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>1657.8079123610526</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>81.614088115256592</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1748.4170521019296</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>129.71106280737104</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>2152.329139853699</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>177.67477297928201</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>1876.6149108994193</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>102.54692618992931</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>2776.3070784360384</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>1875.1214590026586</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>2050.3671806861703</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>82.286792261844994</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>2207.0546274210988</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>94.722352770014766</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>2336.1111055328583</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>9.0875054988022406</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>2631.3997193007249</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>834.75689516513114</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>2687.5392138946377</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>14.849188959274034</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>2855.1831240718898</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>10.528176628406703</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>2888.6722807550186</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>6.936922373543136</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>4078.2120808462664</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>147.86032973432975</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>3220.8694453702383</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>12.783472799232658</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>3157.6692417599179</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>62.13123143060367</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>3466.3760617901876</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>111.72914421873331</v>
+      </c>
+      <c r="BT10" s="3">
+        <v>5724.0025531612482</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>1759.1140745103955</v>
+      </c>
+      <c r="BV10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:75">
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>1.1964897017342613</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>11.37825250542368</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>1.5852285638198302</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>13.801034906761346</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.30015202253010986</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>1.7075094971164719</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>3.90034902219181</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>2.8435198337339656</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>5.8285262714150345</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>2.4007537744051817</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="P11" s="2">
+        <v>114.67555120142181</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>88.359850610091726</v>
+      </c>
+      <c r="R11" s="2">
+        <v>333.55333360075457</v>
+      </c>
+      <c r="S11" s="2">
+        <v>34.868584899309667</v>
+      </c>
+      <c r="T11" s="2">
+        <v>482.9274826374587</v>
+      </c>
+      <c r="U11" s="2">
+        <v>30.169446626510496</v>
+      </c>
+      <c r="V11" s="2">
+        <v>553.87446278773132</v>
+      </c>
+      <c r="W11" s="2">
+        <v>13.558885353127527</v>
+      </c>
+      <c r="X11" s="2">
+        <v>606.47435625542255</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>2.8435198337339656</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>793.53674289388789</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>12.698982669710958</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>855.32813827441112</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>11.860369596414168</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>924.17493120688471</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>24.478920317312419</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>3587.4609238411849</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>432.66748462146609</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1173.4555462499311</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>31.389404526095195</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>36006.475234699363</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>17324.744352881029</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>15146.473444621826</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>14294.092626316686</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>1861.6145702713204</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>593.89058879470963</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>3746.0208772451606</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>3318.1074829651639</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>2101.9222058703867</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>178.03553286334719</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>1852.9359354489181</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>94.521463163126953</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>26512.950516692847</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>26673.672858659596</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>3241.0446618446258</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>2186.8035927118535</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>2159.197255938911</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>87.091454824468542</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>2354.7485600912</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>13.945593058372115</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>2718.4925981390961</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>1044.802430432622</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>2711.5648160756268</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>16.150429816702591</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>2891.7184383158447</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>19.267617520151234</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>2894.7564881960375</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>14.007678936801739</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>4297.6021107439174</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>388.82427659072312</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>3213.9652648455835</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>8.6753351594570436</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>3213.5077885216306</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>19.123141627618644</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>3468.6082740830611</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>77.30130253047983</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>7885.7613484468393</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>2879.7211569553774</v>
+      </c>
+      <c r="BV11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BW11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>757.69936729391009</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>1063.5794706044705</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>780.11801204848302</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>887.43500747792245</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>774.26116959433068</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>782.92486287617635</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>785.38036780188281</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>793.53674289388789</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>862.90707671111045</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>970.51401459998317</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="P12" s="2">
+        <v>100.00000004282847</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.189328622125758E-7</v>
+      </c>
+      <c r="R12" s="3">
+        <v>300.00000000000097</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1.2970600353980771E-12</v>
+      </c>
+      <c r="T12" s="3">
+        <v>427.9284169173946</v>
+      </c>
+      <c r="U12" s="2">
+        <v>31.962548129928571</v>
+      </c>
+      <c r="V12" s="2">
+        <v>578.22920524211577</v>
+      </c>
+      <c r="W12" s="2">
+        <v>26.818521178773992</v>
+      </c>
+      <c r="X12" s="2">
+        <v>605.91420075082374</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>5.8285262714150345</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>862.90707671111045</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>35.36078026055074</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>895.4725976740873</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>28.21769667304893</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>971.4676972684058</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>194.88688978139314</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>5123.5551806929843</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>781.75982459322415</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1176.3958383147346</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>43.282151093088856</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>14018.703333448564</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>9476.6316983093457</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>4638.9103530722696</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>7910.8912675600204</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>1709.4444343230341</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>98.410448878322725</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>1863.0923153882552</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>243.72655285195651</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>2266.5238321727165</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>332.0717896383984</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>1902.5447702858057</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>96.047584129809451</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>3259.2508036979134</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>2685.4042916575218</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>2050.8367998894669</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>73.672950590497024</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>2200.7573780497287</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>129.59185889145007</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>2364.095149024191</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>22.187374797441954</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>4297.7522055296458</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>2485.5869630416414</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>2705.1115594815469</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>22.799710401141823</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>2868.0638119067967</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>11.991677336073126</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>2888.4143756216422</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>7.2501074983337048</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>3879.8553650578233</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>626.42752956191043</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>3219.9168382859475</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>12.989702299491626</v>
+      </c>
+      <c r="BP12" s="3">
+        <v>3133.0082198954701</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>54.694505687619206</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>3542.754014821674</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>156.12196234553974</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>6147.594520274456</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>1691.1690906335371</v>
+      </c>
+      <c r="BV12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75">
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>8.3901522173838909</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>52.716385688809687</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>9.5040082897436235</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>49.506203430856772</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>11.905940090193836</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>6.7396422981692519</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>20.603147645470358</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>12.698982669710958</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>35.36078026055074</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>16.008024036093072</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="P13" s="2">
+        <v>2448748.1368249278</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2480909.6260641557</v>
+      </c>
+      <c r="R13" s="2">
+        <v>41177.975287643458</v>
+      </c>
+      <c r="S13" s="2">
+        <v>18382.078282584789</v>
+      </c>
+      <c r="T13" s="2">
+        <v>491.6295701437769</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5.5848144419029575</v>
+      </c>
+      <c r="V13" s="2">
+        <v>723.02218305046461</v>
+      </c>
+      <c r="W13" s="2">
+        <v>20.559815776660152</v>
+      </c>
+      <c r="X13" s="2">
+        <v>607.20560571220778</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>2.4007537744051817</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>970.51401459998317</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>16.008024036093072</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1007.1862177451891</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>17.391987650413661</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>974.43878790132305</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>65.070760511147427</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>6041.018013440982</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1597.9664252888351</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1257.4545587179987</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>22.560786234054174</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>395471.5889273138</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>365661.4022791743</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>24715.734562885184</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>23135.006576584969</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>2478.2915512210343</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>1004.5910786311171</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>13010.830578205867</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>11818.585507857753</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>2653.224250005429</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>525.55408429885892</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>2057.7236008220493</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>129.16033372660547</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>235430.11037076841</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>194300.33276337854</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>18230.109104688585</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>15675.911239467889</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>2534.7898856195316</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>174.29373096624909</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>2514.3494606629265</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>28.182443947354976</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>7673.8988568938348</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>1921.9732917737883</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>2853.5518063302284</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>39.406416859038266</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>3035.1365950652144</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>18.759269725077953</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>2889.3669954316119</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>4.9853929588033035</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>5795.391649460631</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>259.53458790485371</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>3198.479347348486</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>7.7453248719211931</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>3247.4898414310614</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>28.499427050997504</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>3678.7811893534822</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>215.34620406251156</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>11811.304239878758</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>3859.9767089824845</v>
+      </c>
+      <c r="BV13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>850.89162081122561</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>971.60705863386204</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>862.82053556683763</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>909.87401816376507</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>852.59375000382863</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>845.41739447150258</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>838.65547254298303</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>855.32813827441112</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>895.4725976740873</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>1007.1862177451891</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:75">
       <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>10.907759923930174</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>31.818319739020389</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>11.246562400095582</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>21.39628705232716</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>8.7154647261606453</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>7.5277679820160133</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>9.9300466087442363</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>11.860369596414168</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>28.21769667304893</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>17.391987650413661</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:75">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>912.95860445354072</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>5947.422075517391</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>907.571230056275</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1838.4752017668548</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>905.05826324734903</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>912.72240809806226</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>1006.9886502924313</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>924.17493120688471</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>971.4676972684058</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>974.43878790132305</v>
       </c>
     </row>
@@ -1971,34 +4060,34 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>9.592888377067208</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>1583.1939211767813</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>10.796056260845191</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>784.056535412995</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>38.527606639191326</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>14.763925744645185</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>98.592753463627389</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>24.478920317312419</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <v>194.88688978139314</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>65.070760511147427</v>
       </c>
     </row>
@@ -2009,34 +4098,34 @@
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>3353.9886293742711</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>7095.2332117071901</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>3758.7137803512355</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>4153.7569605541248</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>3128.6852958258291</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>3324.1844756287751</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>3075.8201231074272</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>3587.4609238411849</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <v>5123.5551806929843</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>6041.018013440982</v>
       </c>
     </row>
@@ -2044,34 +4133,34 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>278.13463959721798</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>730.1685403675524</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>395.07701891479815</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>655.81912386692397</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>496.211487959458</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>326.91725795083181</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>383.00766142700451</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>432.66748462146609</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <v>781.75982459322415</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>1597.9664252888351</v>
       </c>
     </row>
@@ -2082,34 +4171,34 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>1147.2996394410006</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>2173.4969616158237</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>1172.7527652139026</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>1196.7338110678306</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>1124.790305654742</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>1150.7201487084519</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>1237.0935600418284</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>1173.4555462499311</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <v>1176.3958383147346</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>1257.4545587179987</v>
       </c>
     </row>
@@ -2117,34 +4206,34 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>19.766921661700692</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>956.31717859140076</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>24.751052120238835</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>34.907159059728663</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>20.902819046879117</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>21.352837310621567</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>54.01535891760232</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>31.389404526095195</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>43.282151093088856</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>22.560786234054174</v>
       </c>
     </row>
@@ -2155,34 +4244,34 @@
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>24156.323916424895</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>331509626.81111556</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>822362.21260583983</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>26416.332994339788</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>210619.26687936991</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>506694.1019153443</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>9422.239179538039</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>36006.475234699363</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <v>14018.703333448564</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>395471.5889273138</v>
       </c>
     </row>
@@ -2190,34 +4279,34 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>17598.039028664167</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>400314292.72533059</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>824453.13076677441</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>13810.051397888443</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>182700.49338205255</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>323262.37921562413</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>9980.6510060392447</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>17324.744352881029</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>9476.6316983093457</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <v>365661.4022791743</v>
       </c>
     </row>
@@ -2228,34 +4317,34 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>4927.2697974442044</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>235834092.09654504</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>22206.370349636225</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>14899.529971854763</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>10856.401272513142</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>1665.0251932643525</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>1805.1314699012221</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>15146.473444621826</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <v>4638.9103530722696</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="2">
         <v>24715.734562885184</v>
       </c>
     </row>
@@ -2263,34 +4352,34 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>1447.4214973308028</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>849780125.99275422</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>14658.462383004626</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>17529.305363288466</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>15785.449845863819</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>325.98043429563768</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <v>767.34927116666211</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>14294.092626316686</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <v>7910.8912675600204</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>23135.006576584969</v>
       </c>
     </row>
@@ -2301,34 +4390,34 @@
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>1716.0117667171087</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>326596.73590688646</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>7660.3695494148433</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>2749.8915523259097</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>7349.2279438129035</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>31001.901302796807</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>1657.8079123610526</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>1861.6145702713204</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <v>1709.4444343230341</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>2478.2915512210343</v>
       </c>
     </row>
@@ -2336,34 +4425,34 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>60.114377262976078</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>462846.00969484152</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>5418.4674350741952</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>2210.4813473108329</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>4820.4891531259173</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>32374.767679927056</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <v>81.614088115256592</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>593.89058879470963</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <v>98.410448878322725</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="2">
         <v>1004.5910786311171</v>
       </c>
     </row>
@@ -2374,34 +4463,34 @@
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>2007.682852974548</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>2128780.7268424314</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>11598.628563902685</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>2472.1353293952229</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>10438.770542361197</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>1662.6220549460902</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <v>1748.4170521019296</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>3746.0208772451606</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <v>1863.0923153882552</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="2">
         <v>13010.830578205867</v>
       </c>
     </row>
@@ -2409,34 +4498,34 @@
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>158.45086503863112</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>8541042.3845163677</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>8017.8700271759717</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>2163.1387559778022</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>10615.653923129412</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>120.42157012344818</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <v>129.71106280737104</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>3318.1074829651639</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <v>243.72655285195651</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <v>11818.585507857753</v>
       </c>
     </row>
@@ -2447,34 +4536,34 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>2051.253322800153</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>3087.5997462252603</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>2152.0515986995019</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>2627.1375771506855</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>1997.5145468696401</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="2">
         <v>2116.962293559749</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <v>2152.329139853699</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>2101.9222058703867</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <v>2266.5238321727165</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="2">
         <v>2653.224250005429</v>
       </c>
     </row>
@@ -2482,34 +4571,34 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>150.43522354068807</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>338.45727416859694</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>135.74961622848346</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>313.88114600732285</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>179.05790845349432</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="2">
         <v>141.82233980310573</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <v>177.67477297928201</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>178.03553286334719</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="2">
         <v>332.0717896383984</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="2">
         <v>525.55408429885892</v>
       </c>
     </row>
@@ -2520,34 +4609,34 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>1784.0734325561539</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>2275.7504308829034</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>1851.4320161585783</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>2188.5404909533663</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>1881.6982348599145</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>1828.6646297805717</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <v>1876.6149108994193</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>1852.9359354489181</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="2">
         <v>1902.5447702858057</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="2">
         <v>2057.7236008220493</v>
       </c>
     </row>
@@ -2555,34 +4644,34 @@
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>29.443829120239347</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>204.73693514368381</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>44.327295622471787</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>227.82478892662931</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>126.46406638002239</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="2">
         <v>59.256654189320763</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>102.54692618992931</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>94.521463163126953</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="2">
         <v>96.047584129809451</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="2">
         <v>129.16033372660547</v>
       </c>
     </row>
@@ -2593,34 +4682,34 @@
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>13097.348627388543</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>1261833.3103635118</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>206079.2093763451</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>16295.13884910474</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>149459.11545989831</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="2">
         <v>158241.96373456306</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="3">
         <v>2776.3070784360384</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="2">
         <v>26512.950516692847</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="2">
         <v>3259.2508036979134</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="2">
         <v>235430.11037076841</v>
       </c>
     </row>
@@ -2628,34 +4717,34 @@
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>8787.2671561051538</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>1620015.2096371481</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>120301.04491196336</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>13984.032378972595</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>123023.69772986475</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="2">
         <v>92782.44941608583</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>1875.1214590026586</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>26673.672858659596</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="2">
         <v>2685.4042916575218</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="2">
         <v>194300.33276337854</v>
       </c>
     </row>
@@ -2666,34 +4755,34 @@
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>2046.8581400218611</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>951492.84809935035</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>8883.7206697395213</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>2317.7065855520291</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>9045.9036566059749</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>2029.5708818012884</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>2050.3671806861703</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>3241.0446618446258</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <v>2050.8367998894669</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="2">
         <v>18230.109104688585</v>
       </c>
     </row>
@@ -2701,34 +4790,34 @@
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>33.101813021200336</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>579529.70616700302</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>8765.3118615443927</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>1004.1267444113474</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>9419.2484295491813</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="2">
         <v>161.50289510339286</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>82.286792261844994</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="2">
         <v>2186.8035927118535</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="2">
         <v>73.672950590497024</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="2">
         <v>15675.911239467889</v>
       </c>
     </row>
@@ -2739,34 +4828,34 @@
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>2146.2841585631882</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>2665.9723409727258</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>2200.3379147656501</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>2391.1383869290721</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>2237.7289130020122</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="2">
         <v>2190.901925351734</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2">
         <v>2207.0546274210988</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="2">
         <v>2159.197255938911</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="2">
         <v>2200.7573780497287</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="2">
         <v>2534.7898856195316</v>
       </c>
     </row>
@@ -2774,34 +4863,34 @@
       <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>43.215720446046014</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>201.10300558896384</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>67.727339076744457</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <v>146.00890483617198</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>114.09983415064032</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>77.769471667642634</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="2">
         <v>94.722352770014766</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="2">
         <v>87.091454824468542</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="2">
         <v>129.59185889145007</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="2">
         <v>174.29373096624909</v>
       </c>
     </row>
@@ -2812,34 +4901,34 @@
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>2340.3387072029091</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>2532.4887268171415</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>2352.3169556831735</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <v>2419.6832001396438</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="2">
         <v>2342.3044811641621</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>2341.039705153863</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <v>2336.1111055328583</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="2">
         <v>2354.7485600912</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="2">
         <v>2364.095149024191</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="2">
         <v>2514.3494606629265</v>
       </c>
     </row>
@@ -2847,34 +4936,34 @@
       <c r="B41" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>10.304455166946836</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>33.681820384553056</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>14.624072331941139</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>32.720922880117548</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="2">
         <v>9.5912366485401641</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="2">
         <v>40.732676458978077</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="3">
         <v>9.0875054988022406</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="2">
         <v>13.945593058372115</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="2">
         <v>22.187374797441954</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="2">
         <v>28.182443947354976</v>
       </c>
     </row>
@@ -2885,34 +4974,34 @@
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>2372.7351029488209</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>7925.7712296930185</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>2755.4659941717491</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <v>2382.9278330940938</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>3172.8193575892096</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>2561.988486018065</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="2">
         <v>2631.3997193007249</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="2">
         <v>2718.4925981390961</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="2">
         <v>4297.7522055296458</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="2">
         <v>7673.8988568938348</v>
       </c>
     </row>
@@ -2920,34 +5009,34 @@
       <c r="B43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>403.28961712349854</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>1936.1360771375989</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>1059.6532211320286</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>652.10610424492188</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>1141.2625148178868</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>716.10292742426464</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="2">
         <v>834.75689516513114</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="2">
         <v>1044.802430432622</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="2">
         <v>2485.5869630416414</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="2">
         <v>1921.9732917737883</v>
       </c>
     </row>
@@ -2958,34 +5047,34 @@
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>2687.3933047244359</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>2957.5091815997666</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>2706.4007882461578</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>2774.4359367049624</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>2685.0481359792948</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>2701.4977707638641</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="2">
         <v>2687.5392138946377</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="2">
         <v>2711.5648160756268</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="2">
         <v>2705.1115594815469</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="2">
         <v>2853.5518063302284</v>
       </c>
     </row>
@@ -2993,34 +5082,34 @@
       <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>10.200315571176871</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>44.989413367205245</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>12.36269699495735</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>32.398199686372905</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>7.9050128918525688</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>9.243275128028035</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="2">
         <v>14.849188959274034</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="2">
         <v>16.150429816702591</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="2">
         <v>22.799710401141823</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="2">
         <v>39.406416859038266</v>
       </c>
     </row>
@@ -3031,34 +5120,34 @@
       <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>2853.2814763064648</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>3172.360548867905</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>2885.3621726971105</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>2979.7786632206235</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>2856.6253961669659</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>2874.6708410869974</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="2">
         <v>2855.1831240718898</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="2">
         <v>2891.7184383158447</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="2">
         <v>2868.0638119067967</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="2">
         <v>3035.1365950652144</v>
       </c>
     </row>
@@ -3066,34 +5155,34 @@
       <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>9.512485527442875</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>44.714994775766385</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>12.114985980361398</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>44.012061621649778</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>8.2236226606344953</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>84.900593220663794</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="2">
         <v>10.528176628406703</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="2">
         <v>19.267617520151234</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="2">
         <v>11.991677336073126</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="2">
         <v>18.759269725077953</v>
       </c>
     </row>
@@ -3104,34 +5193,34 @@
       <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>2887.2616129620874</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>3136.364526209451</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>2886.8940152574555</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>2894.3588920957268</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>2886.6085204796614</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <v>2886.4825586774468</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="2">
         <v>2888.6722807550186</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="2">
         <v>2894.7564881960375</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="2">
         <v>2888.4143756216422</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="2">
         <v>2889.3669954316119</v>
       </c>
     </row>
@@ -3139,34 +5228,34 @@
       <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>0.53032617698894813</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>113.24474551795321</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>0.89644858041550923</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>14.845061026211514</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>1.0003697675160197</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <v>0.94399218800954821</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="2">
         <v>6.936922373543136</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="2">
         <v>14.007678936801739</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="2">
         <v>7.2501074983337048</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="2">
         <v>4.9853929588033035</v>
       </c>
     </row>
@@ -3177,34 +5266,34 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>3949.353848755899</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>6421.7506817557278</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>4062.3825711711975</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>4021.2085650209656</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>3887.0228733244362</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <v>3374.8361024528426</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="2">
         <v>4078.2120808462664</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="2">
         <v>4297.6021107439174</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="2">
         <v>3879.8553650578233</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="2">
         <v>5795.391649460631</v>
       </c>
     </row>
@@ -3212,34 +5301,34 @@
       <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>129.22834033784596</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>753.05353968485178</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>375.6517220341521</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>1533.7795294260782</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>313.21678169549017</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>474.77623393318277</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="2">
         <v>147.86032973432975</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="2">
         <v>388.82427659072312</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="2">
         <v>626.42752956191043</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="2">
         <v>259.53458790485371</v>
       </c>
     </row>
@@ -3250,34 +5339,34 @@
       <c r="B52" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>3207.3270895849905</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>3412.1377757939781</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>3208.5704293686285</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>3247.4629368023452</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <v>3199.6274891252428</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <v>3211.5988488520679</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="2">
         <v>3220.8694453702383</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="2">
         <v>3213.9652648455835</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="2">
         <v>3219.9168382859475</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="3">
         <v>3198.479347348486</v>
       </c>
     </row>
@@ -3285,34 +5374,34 @@
       <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>5.059419447435312</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>82.45457716221101</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>4.8375122746334966</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>19.851086295589425</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>8.3373727349589863</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="3">
         <v>4.4088095898403088</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="2">
         <v>12.783472799232658</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <v>8.6753351594570436</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="2">
         <v>12.989702299491626</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="2">
         <v>7.7453248719211931</v>
       </c>
     </row>
@@ -3323,34 +5412,34 @@
       <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>3196.2385809923499</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>3695.8511656053111</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>3222.2876802577566</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>3164.6965924457795</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>3192.6467629886542</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <v>3212.8512510761307</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="2">
         <v>3157.6692417599179</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="2">
         <v>3213.5077885216306</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="3">
         <v>3133.0082198954701</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="2">
         <v>3247.4898414310614</v>
       </c>
     </row>
@@ -3358,34 +5447,34 @@
       <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>29.722031145381514</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>331.38439383177325</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>12.933381225409267</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>54.346110348421604</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="2">
         <v>34.833138780717981</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="3">
         <v>4.1882401275804133</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="2">
         <v>62.13123143060367</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="2">
         <v>19.123141627618644</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="2">
         <v>54.694505687619206</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="2">
         <v>28.499427050997504</v>
       </c>
     </row>
@@ -3396,34 +5485,34 @@
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>3502.2769747610437</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>4289.7847082890685</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>3584.8295953800853</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>3762.1708060742985</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>3410.4371530034618</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="2">
         <v>3463.9747950370152</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="2">
         <v>3466.3760617901876</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="2">
         <v>3468.6082740830611</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="2">
         <v>3542.754014821674</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="2">
         <v>3678.7811893534822</v>
       </c>
     </row>
@@ -3431,34 +5520,34 @@
       <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>52.755315458708971</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>273.59722342426971</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>76.549242552646305</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>223.81138628758444</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="2">
         <v>58.457164558354798</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="2">
         <v>68.182486343413061</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>111.72914421873331</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="2">
         <v>77.30130253047983</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="2">
         <v>156.12196234553974</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="2">
         <v>215.34620406251156</v>
       </c>
     </row>
@@ -3469,34 +5558,34 @@
       <c r="B58" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>15330.285757511194</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>9796484.0713628717</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="2">
         <v>60372.110320082989</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>10661.72540001251</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="2">
         <v>8018.1723910026349</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="2">
         <v>8859.8874288370043</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="3">
         <v>5724.0025531612482</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="2">
         <v>7885.7613484468393</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="2">
         <v>6147.594520274456</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="2">
         <v>11811.304239878758</v>
       </c>
     </row>
@@ -3504,34 +5593,34 @@
       <c r="B59" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>3944.6743396640245</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>5778484.2886775928</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>50052.185590563524</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>3671.4578634929826</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="2">
         <v>2454.8225501294864</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="2">
         <v>1727.2047001825968</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="2">
         <v>1759.1140745103955</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="2">
         <v>2879.7211569553774</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="3">
         <v>1691.1690906335371</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="2">
         <v>3859.9767089824845</v>
       </c>
     </row>
@@ -3539,34 +5628,34 @@
       <c r="A60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3574,34 +5663,34 @@
       <c r="A61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -62515,9 +64604,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:U17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -62542,7 +64633,7 @@
     <col min="19" max="19" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -62574,7 +64665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -62633,7 +64724,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -62692,7 +64783,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -62751,7 +64842,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -62810,7 +64901,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -62869,7 +64960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -62928,7 +65019,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62987,7 +65078,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -63045,8 +65136,11 @@
       <c r="S9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="U9" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -63104,8 +65198,11 @@
       <c r="S10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -63163,8 +65260,11 @@
       <c r="S11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="U11" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -63222,8 +65322,11 @@
       <c r="S12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="U12" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -63281,8 +65384,11 @@
       <c r="S13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="U13" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -63340,8 +65446,11 @@
       <c r="S14" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="U14" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -63399,8 +65508,11 @@
       <c r="S15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="U15" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -63458,8 +65570,11 @@
       <c r="S16" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -63517,8 +65632,11 @@
       <c r="S17" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="U17" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -63577,7 +65695,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -63636,7 +65754,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -63695,7 +65813,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -63754,7 +65872,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -63813,7 +65931,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -63872,7 +65990,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -63931,7 +66049,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -63990,7 +66108,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -64049,7 +66167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -64108,7 +66226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -64167,7 +66285,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -64226,7 +66344,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -64285,7 +66403,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>233</v>
       </c>
@@ -64317,7 +66435,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>233</v>
       </c>
